--- a/tests/data/import/phpspreadsheet/test-table.xlsx
+++ b/tests/data/import/phpspreadsheet/test-table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasbg/Code/TablePress/git-repo/tests/data/import/phpspreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18DE2BB-E057-CE48-B1E1-DD179F800C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499443EE-710D-5348-8806-425577343CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test-table-semicolon" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -72,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
   <si>
     <t>First column</t>
   </si>
@@ -511,6 +514,9 @@
   <si>
     <t>One row above is empty.</t>
   </si>
+  <si>
+    <t>Styled formula does not get inline HTML after import</t>
+  </si>
 </sst>
 </file>
 
@@ -526,7 +532,7 @@
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="170" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -767,6 +773,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Textkörper)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1118,7 +1132,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1153,6 +1167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Akzent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1214,7 +1229,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design 2013–2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1502,7 +1517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1510,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2189,12 +2204,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3.141</v>
       </c>
@@ -2202,19 +2217,19 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
     </row>
-    <row r="54" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <f>SUM(A50:A51)</f>
         <v>3.141</v>
@@ -2226,7 +2241,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
         <v>81</v>
       </c>
@@ -2237,7 +2252,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="25"/>
       <c r="B56" s="15" t="s">
         <v>85</v>
@@ -2246,7 +2261,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
         <v>88</v>
       </c>
@@ -2257,7 +2272,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -2268,7 +2283,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>94</v>
       </c>
@@ -2279,12 +2294,27 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>95</v>
       </c>
       <c r="C60" s="21" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="26">
+        <f>A61+B61</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/import/phpspreadsheet/test-table.xlsx
+++ b/tests/data/import/phpspreadsheet/test-table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasbg/Code/TablePress/git-repo/tests/data/import/phpspreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499443EE-710D-5348-8806-425577343CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875122C5-8B81-4F4E-ADA0-119F1B21EE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test-table-semicolon" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
   <si>
     <t>First column</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>123.5</t>
-  </si>
-  <si>
-    <t>Float</t>
   </si>
   <si>
     <t>Float with leading zero</t>
@@ -516,6 +513,15 @@
   </si>
   <si>
     <t>Styled formula does not get inline HTML after import</t>
+  </si>
+  <si>
+    <t>Floats that can cause floating point precision errors with the General format 1</t>
+  </si>
+  <si>
+    <t>Floats that can cause floating point precision errors with the General format 2</t>
+  </si>
+  <si>
+    <t>Float with comma and period</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1170,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Akzent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1229,7 +1235,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1517,7 +1523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1525,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1741,16 +1747,16 @@
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1811,27 +1817,27 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>37</v>
+      <c r="A22">
+        <v>123.5</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -1845,7 +1851,7 @@
         <v>123.5</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6">
         <v>123.5</v>
@@ -1859,7 +1865,7 @@
         <v>123.5</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4">
         <v>123.5</v>
@@ -1873,7 +1879,7 @@
         <v>123.5</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="5">
         <v>123.5</v>
@@ -1881,44 +1887,44 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1929,7 +1935,7 @@
         <v>1234.5</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="22">
         <v>1234.5</v>
@@ -1943,7 +1949,7 @@
         <v>1234.5</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="23">
         <v>1234.5</v>
@@ -1951,16 +1957,16 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1971,7 +1977,7 @@
         <v>41067</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="24">
         <v>41067</v>
@@ -1985,7 +1991,7 @@
         <v>41067</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="8">
         <v>41067</v>
@@ -1993,72 +1999,72 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>50</v>
-      </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
         <v>51</v>
       </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
         <v>53</v>
       </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" t="s">
-        <v>54</v>
-      </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>79</v>
-      </c>
       <c r="D38" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2071,7 +2077,7 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39">
         <f>2+4</f>
@@ -2080,58 +2086,58 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
         <v>57</v>
       </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" t="s">
-        <v>58</v>
-      </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
         <v>59</v>
       </c>
-      <c r="B42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" t="s">
-        <v>60</v>
-      </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
         <v>61</v>
       </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
-      </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2142,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2156,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2164,49 +2170,49 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
         <v>66</v>
       </c>
-      <c r="B48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" t="s">
-        <v>67</v>
-      </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2214,20 +2220,20 @@
         <v>3.141</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
     </row>
     <row r="54" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
@@ -2235,71 +2241,71 @@
         <v>3.141</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="12" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="13" t="s">
+      <c r="C55" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="26"/>
+      <c r="B56" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
-      <c r="B56" s="15" t="s">
+      <c r="C56" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="C57" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>95</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2310,11 +2316,39 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="26">
+        <v>102</v>
+      </c>
+      <c r="D61" s="25">
         <f>A61+B61</f>
         <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>3.0219999999999998</v>
+      </c>
+      <c r="B62">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>-3.0219999999999998</v>
+      </c>
+      <c r="B63">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63">
+        <v>9.4E-2</v>
       </c>
     </row>
   </sheetData>
